--- a/1차_가공/고려대학교 세종캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/고려대학교 세종캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12891" uniqueCount="4192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12893" uniqueCount="4192">
   <si>
     <t>대학교명</t>
   </si>
@@ -4495,7 +4495,7 @@
     <t>임상사례연구학I</t>
   </si>
   <si>
-    <t>1학년 세미나</t>
+    <t>1학년세미나</t>
   </si>
   <si>
     <t>아트앤미디어</t>
@@ -4642,19 +4642,19 @@
     <t>화학의기초Ⅰ</t>
   </si>
   <si>
-    <t>Academic EnglishⅠ</t>
-  </si>
-  <si>
-    <t>Academic EnglishⅡ</t>
-  </si>
-  <si>
-    <t>Academic EnglishⅢ(SL)(영강)</t>
-  </si>
-  <si>
-    <t>Academic EnglishⅣ(SL)(영강)</t>
-  </si>
-  <si>
-    <t>Academic EnglishⅢ(HL)(영강)</t>
+    <t>AcademicEnglishⅠ</t>
+  </si>
+  <si>
+    <t>AcademicEnglishⅡ</t>
+  </si>
+  <si>
+    <t>AcademicEnglishⅢ(SL)(영강)</t>
+  </si>
+  <si>
+    <t>AcademicEnglishⅣ(SL)(영강)</t>
+  </si>
+  <si>
+    <t>AcademicEnglishⅢ(HL)(영강)</t>
   </si>
   <si>
     <t>글쓰기Ⅰ</t>
@@ -4669,16 +4669,16 @@
     <t>심층토익I</t>
   </si>
   <si>
-    <t>Debate in English(영강)</t>
-  </si>
-  <si>
-    <t>Presentation in English(영강)</t>
-  </si>
-  <si>
-    <t>Career Development English Writing</t>
-  </si>
-  <si>
-    <t>Technical Writing in English</t>
+    <t>DebateinEnglish(영강)</t>
+  </si>
+  <si>
+    <t>PresentationinEnglish(영강)</t>
+  </si>
+  <si>
+    <t>CareerDevelopmentEnglishWriting</t>
+  </si>
+  <si>
+    <t>TechnicalWritinginEnglish</t>
   </si>
   <si>
     <t>취업영어(영강)</t>
@@ -4861,10 +4861,10 @@
     <t>정보사회와경제</t>
   </si>
   <si>
-    <t>Global Economy I(영강)</t>
-  </si>
-  <si>
-    <t>Global Economy II(영강)</t>
+    <t>GlobalEconomyI(영강)</t>
+  </si>
+  <si>
+    <t>GlobalEconomyII(영강)</t>
   </si>
   <si>
     <t>경제정책론I</t>
@@ -5215,7 +5215,7 @@
     <t>생명공학(영강)</t>
   </si>
   <si>
-    <t>식품화학 I</t>
+    <t>식품화학I</t>
   </si>
   <si>
     <t>식품미생물학Ⅰ(영강)</t>
@@ -5509,10 +5509,10 @@
     <t>컴퓨팅사고</t>
   </si>
   <si>
-    <t>Linux 실습(영강)</t>
-  </si>
-  <si>
-    <t>IoT 개론</t>
+    <t>Linux실습(영강)</t>
+  </si>
+  <si>
+    <t>IoT개론</t>
   </si>
   <si>
     <t>객체지향프로그래밍및실습(영강)</t>
@@ -5704,10 +5704,10 @@
     <t>영미대중예술</t>
   </si>
   <si>
-    <t>Civics in the English-speaking World(영강)</t>
-  </si>
-  <si>
-    <t>Regional Studies in the English-speaking World(영강)</t>
+    <t>CivicsintheEnglish-speakingWorld(영강)</t>
+  </si>
+  <si>
+    <t>RegionalStudiesintheEnglish-speakingWorld(영강)</t>
   </si>
   <si>
     <t>시사영어</t>
@@ -5827,7 +5827,7 @@
     <t>한국어교육실습</t>
   </si>
   <si>
-    <t>Korean Culture for Foreigners(영강)</t>
+    <t>KoreanCultureforForeigners(영강)</t>
   </si>
   <si>
     <t>한국어어휘교육법</t>
@@ -6457,7 +6457,7 @@
     <t>인간수업-뉴노멀시대의창의융합인문MOOC</t>
   </si>
   <si>
-    <t>READER &amp; LEADER</t>
+    <t>READER&amp;LEADER</t>
   </si>
   <si>
     <t>여행과관광현상</t>
@@ -6808,10 +6808,10 @@
     <t>현장실습III</t>
   </si>
   <si>
-    <t>ICT 학점연계 프로젝트 인턴십Ⅰ</t>
-  </si>
-  <si>
-    <t>ICT 학점연계 프로젝트 인턴십 Ⅱ</t>
+    <t>ICT학점연계프로젝트인턴십Ⅰ</t>
+  </si>
+  <si>
+    <t>ICT학점연계프로젝트인턴십Ⅱ</t>
   </si>
   <si>
     <t>환경공학현장인턴십Ⅲ</t>
@@ -12947,7 +12947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1453"/>
+  <dimension ref="A1:K1454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63220,6 +63220,17 @@
         <v>4176</v>
       </c>
     </row>
+    <row r="1454" spans="1:11">
+      <c r="A1454" s="1">
+        <v>1452</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1차_가공/고려대학교 세종캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/고려대학교 세종캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12893" uniqueCount="4192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12891" uniqueCount="4192">
   <si>
     <t>대학교명</t>
   </si>
@@ -12947,7 +12947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1454"/>
+  <dimension ref="A1:K1453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63220,17 +63220,6 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="1454" spans="1:11">
-      <c r="A1454" s="1">
-        <v>1452</v>
-      </c>
-      <c r="B1454" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1454" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
